--- a/docs/nn results 2.xlsx
+++ b/docs/nn results 2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>interval</t>
   </si>
@@ -33,15 +33,9 @@
     <t>marked duplication probability</t>
   </si>
   <si>
-    <t>Chopin</t>
-  </si>
-  <si>
     <t>2:14-2:20</t>
   </si>
   <si>
-    <t>recording</t>
-  </si>
-  <si>
     <t>dataset size</t>
   </si>
   <si>
@@ -61,6 +55,18 @@
   </si>
   <si>
     <t>iterations</t>
+  </si>
+  <si>
+    <t>300s total</t>
+  </si>
+  <si>
+    <t>0 - 0.66, in functie de nivelul de deteriorare al inregistrarii</t>
+  </si>
+  <si>
+    <t>0 in general, putine exceptii</t>
+  </si>
+  <si>
+    <t>in functie de nivelul de deteriorare al inregistrarii si al raportului dintre numarul de sample-uri marcate/nemarcate</t>
   </si>
 </sst>
 </file>
@@ -77,15 +83,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -93,19 +105,386 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,320 +781,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="A1:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="10" width="6.28515625" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J3" s="9">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="13">
+        <v>219000</v>
+      </c>
+      <c r="H4" s="13">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="17">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.66</v>
+      </c>
+      <c r="G5" s="20">
+        <v>141000</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.49</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="24">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="20">
+        <v>133000</v>
+      </c>
+      <c r="H6" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.51</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0.94</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0.96</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="24">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.66</v>
+      </c>
+      <c r="G7" s="25">
+        <v>129000</v>
+      </c>
+      <c r="H7" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="27">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="27" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="28">
+        <v>64</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="28">
+        <v>7258000</v>
+      </c>
+      <c r="H8" s="30">
+        <v>2.91</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0.91</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0.83</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0.72</v>
+      </c>
+      <c r="M8" s="31">
+        <v>0.93</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0.77</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="33">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="27" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="36">
+        <v>2.91</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0.91</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.82</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0.73</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.93</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0.78</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="39">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="27" customHeight="1" thickBot="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="25">
+        <v>2.91</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="O10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="P10" s="27">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="5"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>219000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="G4" s="1">
-        <v>141000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>133000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="G6" s="1">
-        <v>129000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+    <row r="12" spans="1:17">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="21">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
